--- a/V1.1/PCB/No ANT/BOM_Mesh Adv Pi Hat V1.1-No-ANT.xlsx
+++ b/V1.1/PCB/No ANT/BOM_Mesh Adv Pi Hat V1.1-No-ANT.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <sheets>
-    <sheet sheetId="1" name="BOM_PCB V1.1_1_2024-08-18" state="visible" r:id="rId4"/>
+    <sheet sheetId="1" name="BOM_PCB V1.1_No_ANT_2024-08-19" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>

--- a/V1.1/PCB/No ANT/BOM_Mesh Adv Pi Hat V1.1-No-ANT.xlsx
+++ b/V1.1/PCB/No ANT/BOM_Mesh Adv Pi Hat V1.1-No-ANT.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <sheets>
-    <sheet sheetId="1" name="BOM_PCB V1.1_No_ANT_2024-08-19" state="visible" r:id="rId4"/>
+    <sheet sheetId="1" name="BOM_Mesh Adv Pi Hat V1.1_PCB V1" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
